--- a/resources/HistoricalData/BEA_PersonalPercapitaIncome_byCounty.xlsx
+++ b/resources/HistoricalData/BEA_PersonalPercapitaIncome_byCounty.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad6fc7c2d3fbbe0/Desktop/bootcamp/Project3/BC-Project3/resources/HistoricalData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indra\OneDrive\Desktop\bootcamp\ProjectBayArea\BC-Project3\resources\HistoricalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F1791A68-1B63-4D06-AC68-4645461B7489}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{F1791A68-1B63-4D06-AC68-4645461B7489}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F5988075-B3EB-460E-82C6-811DA42B2693}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
   <si>
     <t>CA1 Personal Income Summary: Personal Income, Population, Per Capita Personal Income</t>
   </si>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,17 +931,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3960,4 +3961,972 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EEEF74-DCA8-40D9-B21B-F56FE1786F8F}">
+  <dimension ref="A1:AE10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>1990</v>
+      </c>
+      <c r="F1">
+        <v>1991</v>
+      </c>
+      <c r="G1">
+        <v>1992</v>
+      </c>
+      <c r="H1">
+        <v>1993</v>
+      </c>
+      <c r="I1">
+        <v>1994</v>
+      </c>
+      <c r="J1">
+        <v>1995</v>
+      </c>
+      <c r="K1">
+        <v>1996</v>
+      </c>
+      <c r="L1">
+        <v>1997</v>
+      </c>
+      <c r="M1">
+        <v>1998</v>
+      </c>
+      <c r="N1">
+        <v>1999</v>
+      </c>
+      <c r="O1">
+        <v>2000</v>
+      </c>
+      <c r="P1">
+        <v>2001</v>
+      </c>
+      <c r="Q1">
+        <v>2002</v>
+      </c>
+      <c r="R1">
+        <v>2003</v>
+      </c>
+      <c r="S1">
+        <v>2004</v>
+      </c>
+      <c r="T1">
+        <v>2005</v>
+      </c>
+      <c r="U1">
+        <v>2006</v>
+      </c>
+      <c r="V1">
+        <v>2007</v>
+      </c>
+      <c r="W1">
+        <v>2008</v>
+      </c>
+      <c r="X1">
+        <v>2009</v>
+      </c>
+      <c r="Y1">
+        <v>2010</v>
+      </c>
+      <c r="Z1">
+        <v>2011</v>
+      </c>
+      <c r="AA1">
+        <v>2012</v>
+      </c>
+      <c r="AB1">
+        <v>2013</v>
+      </c>
+      <c r="AC1">
+        <v>2014</v>
+      </c>
+      <c r="AD1">
+        <v>2015</v>
+      </c>
+      <c r="AE1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>22621</v>
+      </c>
+      <c r="F2" s="1">
+        <v>23088</v>
+      </c>
+      <c r="G2" s="1">
+        <v>24036</v>
+      </c>
+      <c r="H2" s="1">
+        <v>24643</v>
+      </c>
+      <c r="I2" s="1">
+        <v>25377</v>
+      </c>
+      <c r="J2" s="1">
+        <v>26855</v>
+      </c>
+      <c r="K2" s="1">
+        <v>28535</v>
+      </c>
+      <c r="L2" s="1">
+        <v>29971</v>
+      </c>
+      <c r="M2" s="1">
+        <v>32148</v>
+      </c>
+      <c r="N2" s="1">
+        <v>34357</v>
+      </c>
+      <c r="O2" s="1">
+        <v>38835</v>
+      </c>
+      <c r="P2" s="1">
+        <v>39268</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>39905</v>
+      </c>
+      <c r="R2" s="1">
+        <v>41432</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43391</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44934</v>
+      </c>
+      <c r="U2" s="1">
+        <v>47829</v>
+      </c>
+      <c r="V2" s="1">
+        <v>48545</v>
+      </c>
+      <c r="W2" s="1">
+        <v>48952</v>
+      </c>
+      <c r="X2" s="1">
+        <v>46386</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>47695</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>50817</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>52811</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>54774</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>58175</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>62926</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>65884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6013</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26227</v>
+      </c>
+      <c r="F3" s="1">
+        <v>26839</v>
+      </c>
+      <c r="G3" s="1">
+        <v>28425</v>
+      </c>
+      <c r="H3" s="1">
+        <v>29322</v>
+      </c>
+      <c r="I3" s="1">
+        <v>30206</v>
+      </c>
+      <c r="J3" s="1">
+        <v>31679</v>
+      </c>
+      <c r="K3" s="1">
+        <v>33605</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35897</v>
+      </c>
+      <c r="M3" s="1">
+        <v>38193</v>
+      </c>
+      <c r="N3" s="1">
+        <v>40272</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44952</v>
+      </c>
+      <c r="P3" s="1">
+        <v>44706</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="R3" s="1">
+        <v>46393</v>
+      </c>
+      <c r="S3" s="1">
+        <v>51776</v>
+      </c>
+      <c r="T3" s="1">
+        <v>54489</v>
+      </c>
+      <c r="U3" s="1">
+        <v>58497</v>
+      </c>
+      <c r="V3" s="1">
+        <v>59281</v>
+      </c>
+      <c r="W3" s="1">
+        <v>60068</v>
+      </c>
+      <c r="X3" s="1">
+        <v>54382</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>53752</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>57363</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>61530</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>60883</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>62957</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>68123</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>70840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6041</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34748</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36114</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38492</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40226</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42455</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45508</v>
+      </c>
+      <c r="K4" s="1">
+        <v>49047</v>
+      </c>
+      <c r="L4" s="1">
+        <v>52940</v>
+      </c>
+      <c r="M4" s="1">
+        <v>58794</v>
+      </c>
+      <c r="N4" s="1">
+        <v>62661</v>
+      </c>
+      <c r="O4" s="1">
+        <v>69448</v>
+      </c>
+      <c r="P4" s="1">
+        <v>73861</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>74071</v>
+      </c>
+      <c r="R4" s="1">
+        <v>76247</v>
+      </c>
+      <c r="S4" s="1">
+        <v>81512</v>
+      </c>
+      <c r="T4" s="1">
+        <v>85179</v>
+      </c>
+      <c r="U4" s="1">
+        <v>91144</v>
+      </c>
+      <c r="V4" s="1">
+        <v>90927</v>
+      </c>
+      <c r="W4" s="1">
+        <v>91188</v>
+      </c>
+      <c r="X4" s="1">
+        <v>82955</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>83218</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>90072</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>96146</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>96885</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>104319</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>111959</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>115952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6055</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>23104</v>
+      </c>
+      <c r="F5" s="1">
+        <v>24173</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24839</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25712</v>
+      </c>
+      <c r="I5" s="1">
+        <v>26597</v>
+      </c>
+      <c r="J5" s="1">
+        <v>27634</v>
+      </c>
+      <c r="K5" s="1">
+        <v>29340</v>
+      </c>
+      <c r="L5" s="1">
+        <v>31042</v>
+      </c>
+      <c r="M5" s="1">
+        <v>32928</v>
+      </c>
+      <c r="N5" s="1">
+        <v>35260</v>
+      </c>
+      <c r="O5" s="1">
+        <v>38282</v>
+      </c>
+      <c r="P5" s="1">
+        <v>41159</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>41394</v>
+      </c>
+      <c r="R5" s="1">
+        <v>41947</v>
+      </c>
+      <c r="S5" s="1">
+        <v>43118</v>
+      </c>
+      <c r="T5" s="1">
+        <v>44956</v>
+      </c>
+      <c r="U5" s="1">
+        <v>47023</v>
+      </c>
+      <c r="V5" s="1">
+        <v>48346</v>
+      </c>
+      <c r="W5" s="1">
+        <v>48586</v>
+      </c>
+      <c r="X5" s="1">
+        <v>46552</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>46395</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>48473</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>53241</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>54390</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>58316</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>62832</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>65805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6075</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29434</v>
+      </c>
+      <c r="F6" s="1">
+        <v>31084</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32119</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32709</v>
+      </c>
+      <c r="I6" s="1">
+        <v>33529</v>
+      </c>
+      <c r="J6" s="1">
+        <v>36335</v>
+      </c>
+      <c r="K6" s="1">
+        <v>38630</v>
+      </c>
+      <c r="L6" s="1">
+        <v>40395</v>
+      </c>
+      <c r="M6" s="1">
+        <v>45191</v>
+      </c>
+      <c r="N6" s="1">
+        <v>48813</v>
+      </c>
+      <c r="O6" s="1">
+        <v>56326</v>
+      </c>
+      <c r="P6" s="1">
+        <v>56333</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>54594</v>
+      </c>
+      <c r="R6" s="1">
+        <v>55129</v>
+      </c>
+      <c r="S6" s="1">
+        <v>59910</v>
+      </c>
+      <c r="T6" s="1">
+        <v>65958</v>
+      </c>
+      <c r="U6" s="1">
+        <v>72967</v>
+      </c>
+      <c r="V6" s="1">
+        <v>75740</v>
+      </c>
+      <c r="W6" s="1">
+        <v>76365</v>
+      </c>
+      <c r="X6" s="1">
+        <v>73167</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>76118</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>81030</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>88216</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>88977</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>97978</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>105997</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>110418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6081</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>29453</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30364</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31756</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32900</v>
+      </c>
+      <c r="I7" s="1">
+        <v>34035</v>
+      </c>
+      <c r="J7" s="1">
+        <v>36369</v>
+      </c>
+      <c r="K7" s="1">
+        <v>40246</v>
+      </c>
+      <c r="L7" s="1">
+        <v>41456</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45966</v>
+      </c>
+      <c r="N7" s="1">
+        <v>52079</v>
+      </c>
+      <c r="O7" s="1">
+        <v>60755</v>
+      </c>
+      <c r="P7" s="1">
+        <v>57474</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>54069</v>
+      </c>
+      <c r="R7" s="1">
+        <v>55189</v>
+      </c>
+      <c r="S7" s="1">
+        <v>59872</v>
+      </c>
+      <c r="T7" s="1">
+        <v>65877</v>
+      </c>
+      <c r="U7" s="1">
+        <v>73295</v>
+      </c>
+      <c r="V7" s="1">
+        <v>77643</v>
+      </c>
+      <c r="W7" s="1">
+        <v>77329</v>
+      </c>
+      <c r="X7" s="1">
+        <v>72337</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>73464</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>79521</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>87523</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>87045</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>92759</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>101264</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>105721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6085</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25693</v>
+      </c>
+      <c r="F8" s="1">
+        <v>26458</v>
+      </c>
+      <c r="G8" s="1">
+        <v>28115</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28303</v>
+      </c>
+      <c r="I8" s="1">
+        <v>29240</v>
+      </c>
+      <c r="J8" s="1">
+        <v>31850</v>
+      </c>
+      <c r="K8" s="1">
+        <v>34053</v>
+      </c>
+      <c r="L8" s="1">
+        <v>37105</v>
+      </c>
+      <c r="M8" s="1">
+        <v>39609</v>
+      </c>
+      <c r="N8" s="1">
+        <v>44040</v>
+      </c>
+      <c r="O8" s="1">
+        <v>54510</v>
+      </c>
+      <c r="P8" s="1">
+        <v>50454</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>47390</v>
+      </c>
+      <c r="R8" s="1">
+        <v>47981</v>
+      </c>
+      <c r="S8" s="1">
+        <v>50049</v>
+      </c>
+      <c r="T8" s="1">
+        <v>52569</v>
+      </c>
+      <c r="U8" s="1">
+        <v>57766</v>
+      </c>
+      <c r="V8" s="1">
+        <v>62222</v>
+      </c>
+      <c r="W8" s="1">
+        <v>61637</v>
+      </c>
+      <c r="X8" s="1">
+        <v>57470</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>61193</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>66271</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>72891</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>72407</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>78345</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>85354</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>88920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6095</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19785</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19919</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20695</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21201</v>
+      </c>
+      <c r="I9" s="1">
+        <v>21166</v>
+      </c>
+      <c r="J9" s="1">
+        <v>21785</v>
+      </c>
+      <c r="K9" s="1">
+        <v>22538</v>
+      </c>
+      <c r="L9" s="1">
+        <v>23715</v>
+      </c>
+      <c r="M9" s="1">
+        <v>24894</v>
+      </c>
+      <c r="N9" s="1">
+        <v>25997</v>
+      </c>
+      <c r="O9" s="1">
+        <v>28104</v>
+      </c>
+      <c r="P9" s="1">
+        <v>30527</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>31182</v>
+      </c>
+      <c r="R9" s="1">
+        <v>32573</v>
+      </c>
+      <c r="S9" s="1">
+        <v>33502</v>
+      </c>
+      <c r="T9" s="1">
+        <v>34434</v>
+      </c>
+      <c r="U9" s="1">
+        <v>35792</v>
+      </c>
+      <c r="V9" s="1">
+        <v>37003</v>
+      </c>
+      <c r="W9" s="1">
+        <v>38341</v>
+      </c>
+      <c r="X9" s="1">
+        <v>37441</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>37327</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>38642</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>39112</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>40361</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>41812</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>44345</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6097</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22242</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22762</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23642</v>
+      </c>
+      <c r="H10" s="1">
+        <v>24460</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25316</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26079</v>
+      </c>
+      <c r="K10" s="1">
+        <v>27722</v>
+      </c>
+      <c r="L10" s="1">
+        <v>29704</v>
+      </c>
+      <c r="M10" s="1">
+        <v>31536</v>
+      </c>
+      <c r="N10" s="1">
+        <v>32755</v>
+      </c>
+      <c r="O10" s="1">
+        <v>36677</v>
+      </c>
+      <c r="P10" s="1">
+        <v>38241</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>38245</v>
+      </c>
+      <c r="R10" s="1">
+        <v>38523</v>
+      </c>
+      <c r="S10" s="1">
+        <v>39513</v>
+      </c>
+      <c r="T10" s="1">
+        <v>40763</v>
+      </c>
+      <c r="U10" s="1">
+        <v>43606</v>
+      </c>
+      <c r="V10" s="1">
+        <v>44545</v>
+      </c>
+      <c r="W10" s="1">
+        <v>43978</v>
+      </c>
+      <c r="X10" s="1">
+        <v>42089</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>42546</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>44637</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>46334</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>47897</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>50533</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>54409</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>56567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>